--- a/User Access Testing.xlsx
+++ b/User Access Testing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="39">
   <si>
     <t>user ID</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>2022-10-05</t>
+  </si>
+  <si>
+    <t>2023-05-19</t>
+  </si>
+  <si>
+    <t>2023-06-15</t>
   </si>
   <si>
     <t>Active</t>
@@ -550,8 +556,11 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -580,7 +589,7 @@
         <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -608,8 +617,11 @@
       <c r="H4" t="s">
         <v>33</v>
       </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
       <c r="K4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -638,7 +650,7 @@
         <v>34</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -691,31 +703,63 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" t="s">
         <v>34</v>
       </c>
-      <c r="K2" t="s">
-        <v>35</v>
+      <c r="K3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -791,8 +835,11 @@
       <c r="H2" t="s">
         <v>33</v>
       </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
